--- a/AttendanceChecking (copy).xlsx
+++ b/AttendanceChecking (copy).xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="136">
   <si>
     <t>DANH SÁCH SINH VIÊN</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>12/02/2018</t>
+  </si>
+  <si>
+    <t>12/05/2018</t>
   </si>
   <si>
     <t>Total</t>
@@ -987,6 +990,9 @@
       <c r="N5" s="19" t="s">
         <v>17</v>
       </c>
+      <c r="O5" s="19" t="s">
+        <v>18</v>
+      </c>
       <c r="ALW5" s="12" t="n"/>
       <c r="ALX5" s="12" t="n"/>
       <c r="ALY5" s="12" t="n"/>
@@ -1007,18 +1013,19 @@
         <v>1511844</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="20" t="n">
         <v>1</v>
       </c>
       <c r="E6" s="21" t="n"/>
       <c r="M6" s="11" t="n"/>
-      <c r="N6">
-        <f>COUNTBLANK(E6:M6)</f>
+      <c r="N6" t="s"/>
+      <c r="O6">
+        <f>COUNTBLANK(E6:N6)</f>
         <v/>
       </c>
     </row>
@@ -1027,18 +1034,19 @@
         <v>1512221</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="22" t="n">
         <v>1</v>
       </c>
       <c r="E7" s="21" t="n"/>
       <c r="M7" s="11" t="n"/>
-      <c r="N7">
-        <f>COUNTBLANK(E7:M7)</f>
+      <c r="N7" t="s"/>
+      <c r="O7">
+        <f>COUNTBLANK(E7:N7)</f>
         <v/>
       </c>
     </row>
@@ -1047,18 +1055,19 @@
         <v>1512396</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" s="22" t="n">
         <v>1</v>
       </c>
       <c r="E8" s="21" t="n"/>
       <c r="M8" s="11" t="n"/>
-      <c r="N8">
-        <f>COUNTBLANK(E8:M8)</f>
+      <c r="N8" t="s"/>
+      <c r="O8">
+        <f>COUNTBLANK(E8:N8)</f>
         <v/>
       </c>
     </row>
@@ -1067,18 +1076,19 @@
         <v>1512534</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" s="22" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="21" t="n"/>
       <c r="M9" s="11" t="n"/>
-      <c r="N9">
-        <f>COUNTBLANK(E9:M9)</f>
+      <c r="N9" t="s"/>
+      <c r="O9">
+        <f>COUNTBLANK(E9:N9)</f>
         <v/>
       </c>
     </row>
@@ -1087,18 +1097,19 @@
         <v>1512640</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="22" t="n">
         <v>1</v>
       </c>
       <c r="E10" s="21" t="n"/>
       <c r="M10" s="11" t="n"/>
-      <c r="N10">
-        <f>COUNTBLANK(E10:M10)</f>
+      <c r="N10" t="s"/>
+      <c r="O10">
+        <f>COUNTBLANK(E10:N10)</f>
         <v/>
       </c>
     </row>
@@ -1107,18 +1118,19 @@
         <v>1510335</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="22" t="n">
         <v>2</v>
       </c>
       <c r="E11" s="21" t="n"/>
       <c r="M11" s="11" t="n"/>
-      <c r="N11">
-        <f>COUNTBLANK(E11:M11)</f>
+      <c r="N11" t="s"/>
+      <c r="O11">
+        <f>COUNTBLANK(E11:N11)</f>
         <v/>
       </c>
     </row>
@@ -1127,18 +1139,19 @@
         <v>1511234</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="22" t="n">
         <v>2</v>
       </c>
       <c r="E12" s="21" t="n"/>
       <c r="M12" s="11" t="n"/>
-      <c r="N12">
-        <f>COUNTBLANK(E12:M12)</f>
+      <c r="N12" t="s"/>
+      <c r="O12">
+        <f>COUNTBLANK(E12:N12)</f>
         <v/>
       </c>
     </row>
@@ -1147,18 +1160,19 @@
         <v>1511908</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="22" t="n">
         <v>2</v>
       </c>
       <c r="E13" s="21" t="n"/>
       <c r="M13" s="11" t="n"/>
-      <c r="N13">
-        <f>COUNTBLANK(E13:M13)</f>
+      <c r="N13" t="s"/>
+      <c r="O13">
+        <f>COUNTBLANK(E13:N13)</f>
         <v/>
       </c>
     </row>
@@ -1167,18 +1181,19 @@
         <v>1513218</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D14" s="22" t="n">
         <v>2</v>
       </c>
       <c r="E14" s="21" t="n"/>
       <c r="M14" s="11" t="n"/>
-      <c r="N14">
-        <f>COUNTBLANK(E14:M14)</f>
+      <c r="N14" t="s"/>
+      <c r="O14">
+        <f>COUNTBLANK(E14:N14)</f>
         <v/>
       </c>
     </row>
@@ -1187,18 +1202,19 @@
         <v>1510806</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D15" s="22" t="n">
         <v>2</v>
       </c>
       <c r="E15" s="21" t="n"/>
       <c r="M15" s="11" t="n"/>
-      <c r="N15">
-        <f>COUNTBLANK(E15:M15)</f>
+      <c r="N15" t="s"/>
+      <c r="O15">
+        <f>COUNTBLANK(E15:N15)</f>
         <v/>
       </c>
     </row>
@@ -1207,18 +1223,19 @@
         <v>1510126</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D16" s="22" t="n">
         <v>3</v>
       </c>
       <c r="E16" s="21" t="n"/>
       <c r="M16" s="11" t="n"/>
-      <c r="N16">
-        <f>COUNTBLANK(E16:M16)</f>
+      <c r="N16" t="s"/>
+      <c r="O16">
+        <f>COUNTBLANK(E16:N16)</f>
         <v/>
       </c>
     </row>
@@ -1227,18 +1244,19 @@
         <v>1510462</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D17" s="22" t="n">
         <v>3</v>
       </c>
       <c r="E17" s="21" t="n"/>
       <c r="M17" s="11" t="n"/>
-      <c r="N17">
-        <f>COUNTBLANK(E17:M17)</f>
+      <c r="N17" t="s"/>
+      <c r="O17">
+        <f>COUNTBLANK(E17:N17)</f>
         <v/>
       </c>
     </row>
@@ -1247,18 +1265,19 @@
         <v>1511766</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D18" s="22" t="n">
         <v>3</v>
       </c>
       <c r="E18" s="21" t="n"/>
       <c r="M18" s="11" t="n"/>
-      <c r="N18">
-        <f>COUNTBLANK(E18:M18)</f>
+      <c r="N18" t="s"/>
+      <c r="O18">
+        <f>COUNTBLANK(E18:N18)</f>
         <v/>
       </c>
     </row>
@@ -1267,18 +1286,19 @@
         <v>1512676</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D19" s="22" t="n">
         <v>3</v>
       </c>
       <c r="E19" s="21" t="n"/>
       <c r="M19" s="11" t="n"/>
-      <c r="N19">
-        <f>COUNTBLANK(E19:M19)</f>
+      <c r="N19" t="s"/>
+      <c r="O19">
+        <f>COUNTBLANK(E19:N19)</f>
         <v/>
       </c>
     </row>
@@ -1287,18 +1307,19 @@
         <v>1510827</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D20" s="22" t="n">
         <v>3</v>
       </c>
       <c r="E20" s="21" t="n"/>
       <c r="M20" s="11" t="n"/>
-      <c r="N20">
-        <f>COUNTBLANK(E20:M20)</f>
+      <c r="N20" t="s"/>
+      <c r="O20">
+        <f>COUNTBLANK(E20:N20)</f>
         <v/>
       </c>
     </row>
@@ -1307,18 +1328,19 @@
         <v>1510463</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D21" s="22" t="n">
         <v>4</v>
       </c>
       <c r="E21" s="21" t="n"/>
       <c r="M21" s="11" t="n"/>
-      <c r="N21">
-        <f>COUNTBLANK(E21:M21)</f>
+      <c r="N21" t="s"/>
+      <c r="O21">
+        <f>COUNTBLANK(E21:N21)</f>
         <v/>
       </c>
     </row>
@@ -1327,18 +1349,19 @@
         <v>1513031</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D22" s="22" t="n">
         <v>4</v>
       </c>
       <c r="E22" s="21" t="n"/>
       <c r="M22" s="11" t="n"/>
-      <c r="N22">
-        <f>COUNTBLANK(E22:M22)</f>
+      <c r="N22" t="s"/>
+      <c r="O22">
+        <f>COUNTBLANK(E22:N22)</f>
         <v/>
       </c>
     </row>
@@ -1347,18 +1370,19 @@
         <v>1514125</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D23" s="22" t="n">
         <v>4</v>
       </c>
       <c r="E23" s="21" t="n"/>
       <c r="M23" s="11" t="n"/>
-      <c r="N23">
-        <f>COUNTBLANK(E23:M23)</f>
+      <c r="N23" t="s"/>
+      <c r="O23">
+        <f>COUNTBLANK(E23:N23)</f>
         <v/>
       </c>
     </row>
@@ -1367,18 +1391,19 @@
         <v>1510652</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D24" s="22" t="n">
         <v>4</v>
       </c>
       <c r="E24" s="21" t="n"/>
       <c r="M24" s="11" t="n"/>
-      <c r="N24">
-        <f>COUNTBLANK(E24:M24)</f>
+      <c r="N24" t="s"/>
+      <c r="O24">
+        <f>COUNTBLANK(E24:N24)</f>
         <v/>
       </c>
     </row>
@@ -1387,18 +1412,19 @@
         <v>1510698</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D25" s="22" t="n">
         <v>4</v>
       </c>
       <c r="E25" s="21" t="n"/>
       <c r="M25" s="11" t="n"/>
-      <c r="N25">
-        <f>COUNTBLANK(E25:M25)</f>
+      <c r="N25" t="s"/>
+      <c r="O25">
+        <f>COUNTBLANK(E25:N25)</f>
         <v/>
       </c>
     </row>
@@ -1407,18 +1433,19 @@
         <v>1510122</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D26" s="22" t="n">
         <v>5</v>
       </c>
       <c r="E26" s="21" t="n"/>
       <c r="M26" s="11" t="n"/>
-      <c r="N26">
-        <f>COUNTBLANK(E26:M26)</f>
+      <c r="N26" t="s"/>
+      <c r="O26">
+        <f>COUNTBLANK(E26:N26)</f>
         <v/>
       </c>
     </row>
@@ -1427,18 +1454,19 @@
         <v>1511021</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D27" s="22" t="n">
         <v>5</v>
       </c>
       <c r="E27" s="21" t="n"/>
       <c r="M27" s="11" t="n"/>
-      <c r="N27">
-        <f>COUNTBLANK(E27:M27)</f>
+      <c r="N27" t="s"/>
+      <c r="O27">
+        <f>COUNTBLANK(E27:N27)</f>
         <v/>
       </c>
     </row>
@@ -1447,18 +1475,19 @@
         <v>1511149</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D28" s="22" t="n">
         <v>5</v>
       </c>
       <c r="E28" s="21" t="n"/>
       <c r="M28" s="11" t="n"/>
-      <c r="N28">
-        <f>COUNTBLANK(E28:M28)</f>
+      <c r="N28" t="s"/>
+      <c r="O28">
+        <f>COUNTBLANK(E28:N28)</f>
         <v/>
       </c>
     </row>
@@ -1467,18 +1496,19 @@
         <v>1512263</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D29" s="22" t="n">
         <v>5</v>
       </c>
       <c r="E29" s="21" t="n"/>
       <c r="M29" s="11" t="n"/>
-      <c r="N29">
-        <f>COUNTBLANK(E29:M29)</f>
+      <c r="N29" t="s"/>
+      <c r="O29">
+        <f>COUNTBLANK(E29:N29)</f>
         <v/>
       </c>
     </row>
@@ -1487,18 +1517,19 @@
         <v>1513524</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D30" s="22" t="n">
         <v>5</v>
       </c>
       <c r="E30" s="21" t="n"/>
       <c r="M30" s="11" t="n"/>
-      <c r="N30">
-        <f>COUNTBLANK(E30:M30)</f>
+      <c r="N30" t="s"/>
+      <c r="O30">
+        <f>COUNTBLANK(E30:N30)</f>
         <v/>
       </c>
     </row>
@@ -1507,18 +1538,19 @@
         <v>1512705</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D31" s="22" t="n">
         <v>6</v>
       </c>
       <c r="E31" s="21" t="n"/>
       <c r="M31" s="11" t="n"/>
-      <c r="N31">
-        <f>COUNTBLANK(E31:M31)</f>
+      <c r="N31" t="s"/>
+      <c r="O31">
+        <f>COUNTBLANK(E31:N31)</f>
         <v/>
       </c>
     </row>
@@ -1527,18 +1559,19 @@
         <v>1513489</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D32" s="22" t="n">
         <v>6</v>
       </c>
       <c r="E32" s="21" t="n"/>
       <c r="M32" s="11" t="n"/>
-      <c r="N32">
-        <f>COUNTBLANK(E32:M32)</f>
+      <c r="N32" t="s"/>
+      <c r="O32">
+        <f>COUNTBLANK(E32:N32)</f>
         <v/>
       </c>
     </row>
@@ -1547,18 +1580,19 @@
         <v>1513505</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D33" s="22" t="n">
         <v>6</v>
       </c>
       <c r="E33" s="21" t="n"/>
       <c r="M33" s="11" t="n"/>
-      <c r="N33">
-        <f>COUNTBLANK(E33:M33)</f>
+      <c r="N33" t="s"/>
+      <c r="O33">
+        <f>COUNTBLANK(E33:N33)</f>
         <v/>
       </c>
     </row>
@@ -1567,18 +1601,19 @@
         <v>1533720</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D34" s="22" t="n">
         <v>6</v>
       </c>
       <c r="E34" s="21" t="n"/>
       <c r="M34" s="11" t="n"/>
-      <c r="N34">
-        <f>COUNTBLANK(E34:M34)</f>
+      <c r="N34" t="s"/>
+      <c r="O34">
+        <f>COUNTBLANK(E34:N34)</f>
         <v/>
       </c>
     </row>
@@ -1587,18 +1622,19 @@
         <v>1410285</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D35" s="22" t="n">
         <v>7</v>
       </c>
       <c r="E35" s="21" t="n"/>
       <c r="M35" s="11" t="n"/>
-      <c r="N35">
-        <f>COUNTBLANK(E35:M35)</f>
+      <c r="N35" t="s"/>
+      <c r="O35">
+        <f>COUNTBLANK(E35:N35)</f>
         <v/>
       </c>
     </row>
@@ -1607,18 +1643,19 @@
         <v>1410397</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D36" s="22" t="n">
         <v>7</v>
       </c>
       <c r="E36" s="21" t="n"/>
       <c r="M36" s="11" t="n"/>
-      <c r="N36">
-        <f>COUNTBLANK(E36:M36)</f>
+      <c r="N36" t="s"/>
+      <c r="O36">
+        <f>COUNTBLANK(E36:N36)</f>
         <v/>
       </c>
     </row>
@@ -1627,18 +1664,19 @@
         <v>1412103</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D37" s="22" t="n">
         <v>7</v>
       </c>
       <c r="E37" s="21" t="n"/>
       <c r="M37" s="11" t="n"/>
-      <c r="N37">
-        <f>COUNTBLANK(E37:M37)</f>
+      <c r="N37" t="s"/>
+      <c r="O37">
+        <f>COUNTBLANK(E37:N37)</f>
         <v/>
       </c>
     </row>
@@ -1647,18 +1685,19 @@
         <v>1512510</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D38" s="22" t="n">
         <v>7</v>
       </c>
       <c r="E38" s="21" t="n"/>
       <c r="M38" s="11" t="n"/>
-      <c r="N38">
-        <f>COUNTBLANK(E38:M38)</f>
+      <c r="N38" t="s"/>
+      <c r="O38">
+        <f>COUNTBLANK(E38:N38)</f>
         <v/>
       </c>
     </row>
@@ -1667,18 +1706,19 @@
         <v>1413471</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D39" s="22" t="n">
         <v>7</v>
       </c>
       <c r="E39" s="21" t="n"/>
       <c r="M39" s="11" t="n"/>
-      <c r="N39">
-        <f>COUNTBLANK(E39:M39)</f>
+      <c r="N39" t="s"/>
+      <c r="O39">
+        <f>COUNTBLANK(E39:N39)</f>
         <v/>
       </c>
     </row>
@@ -1687,18 +1727,19 @@
         <v>1510322</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D40" s="22" t="n">
         <v>8</v>
       </c>
       <c r="E40" s="21" t="n"/>
       <c r="M40" s="11" t="n"/>
-      <c r="N40">
-        <f>COUNTBLANK(E40:M40)</f>
+      <c r="N40" t="s"/>
+      <c r="O40">
+        <f>COUNTBLANK(E40:N40)</f>
         <v/>
       </c>
     </row>
@@ -1707,18 +1748,19 @@
         <v>1512022</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D41" s="22" t="n">
         <v>8</v>
       </c>
       <c r="E41" s="21" t="n"/>
       <c r="M41" s="11" t="n"/>
-      <c r="N41">
-        <f>COUNTBLANK(E41:M41)</f>
+      <c r="N41" t="s"/>
+      <c r="O41">
+        <f>COUNTBLANK(E41:N41)</f>
         <v/>
       </c>
     </row>
@@ -1727,18 +1769,19 @@
         <v>1512830</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D42" s="22" t="n">
         <v>8</v>
       </c>
       <c r="E42" s="21" t="n"/>
       <c r="M42" s="11" t="n"/>
-      <c r="N42">
-        <f>COUNTBLANK(E42:M42)</f>
+      <c r="N42" t="s"/>
+      <c r="O42">
+        <f>COUNTBLANK(E42:N42)</f>
         <v/>
       </c>
     </row>
@@ -1747,18 +1790,19 @@
         <v>1513555</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D43" s="22" t="n">
         <v>8</v>
       </c>
       <c r="E43" s="21" t="n"/>
       <c r="M43" s="11" t="n"/>
-      <c r="N43">
-        <f>COUNTBLANK(E43:M43)</f>
+      <c r="N43" t="s"/>
+      <c r="O43">
+        <f>COUNTBLANK(E43:N43)</f>
         <v/>
       </c>
     </row>
@@ -1767,18 +1811,19 @@
         <v>1513776</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D44" s="22" t="n">
         <v>8</v>
       </c>
       <c r="E44" s="21" t="n"/>
       <c r="M44" s="11" t="n"/>
-      <c r="N44">
-        <f>COUNTBLANK(E44:M44)</f>
+      <c r="N44" t="s"/>
+      <c r="O44">
+        <f>COUNTBLANK(E44:N44)</f>
         <v/>
       </c>
     </row>
@@ -1787,10 +1832,10 @@
         <v>1512489</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D45" s="22" t="n">
         <v>9</v>
@@ -1799,9 +1844,12 @@
       <c r="H45" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="M45" s="11" t="n"/>
-      <c r="N45">
-        <f>COUNTBLANK(E45:M45)</f>
+      <c r="M45" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45">
+        <f>COUNTBLANK(E45:N45)</f>
         <v/>
       </c>
     </row>
@@ -1810,10 +1858,10 @@
         <v>1512579</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D46" s="22" t="n">
         <v>9</v>
@@ -1823,8 +1871,9 @@
         <v>1</v>
       </c>
       <c r="M46" s="11" t="n"/>
-      <c r="N46">
-        <f>COUNTBLANK(E46:M46)</f>
+      <c r="N46" t="s"/>
+      <c r="O46">
+        <f>COUNTBLANK(E46:N46)</f>
         <v/>
       </c>
     </row>
@@ -1833,10 +1882,10 @@
         <v>1512702</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D47" s="22" t="n">
         <v>9</v>
@@ -1846,8 +1895,9 @@
         <v>1</v>
       </c>
       <c r="M47" s="11" t="n"/>
-      <c r="N47">
-        <f>COUNTBLANK(E47:M47)</f>
+      <c r="N47" t="s"/>
+      <c r="O47">
+        <f>COUNTBLANK(E47:N47)</f>
         <v/>
       </c>
     </row>
@@ -1856,10 +1906,10 @@
         <v>1512872</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D48" s="22" t="n">
         <v>9</v>
@@ -1869,8 +1919,9 @@
         <v>1</v>
       </c>
       <c r="M48" s="11" t="n"/>
-      <c r="N48">
-        <f>COUNTBLANK(E48:M48)</f>
+      <c r="N48" t="s"/>
+      <c r="O48">
+        <f>COUNTBLANK(E48:N48)</f>
         <v/>
       </c>
     </row>
@@ -1879,10 +1930,10 @@
         <v>1513172</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D49" s="22" t="n">
         <v>9</v>
@@ -1892,8 +1943,9 @@
         <v>1</v>
       </c>
       <c r="M49" s="11" t="n"/>
-      <c r="N49">
-        <f>COUNTBLANK(E49:M49)</f>
+      <c r="N49" t="s"/>
+      <c r="O49">
+        <f>COUNTBLANK(E49:N49)</f>
         <v/>
       </c>
     </row>
@@ -1902,10 +1954,10 @@
         <v>1513372</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D50" s="22" t="n">
         <v>9</v>
@@ -1915,8 +1967,9 @@
         <v>1</v>
       </c>
       <c r="M50" s="11" t="n"/>
-      <c r="N50">
-        <f>COUNTBLANK(E50:M50)</f>
+      <c r="N50" t="s"/>
+      <c r="O50">
+        <f>COUNTBLANK(E50:N50)</f>
         <v/>
       </c>
     </row>
@@ -1925,18 +1978,19 @@
         <v>1510042</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D51" s="22" t="n">
         <v>10</v>
       </c>
       <c r="E51" s="21" t="n"/>
       <c r="M51" s="11" t="n"/>
-      <c r="N51">
-        <f>COUNTBLANK(E51:M51)</f>
+      <c r="N51" t="s"/>
+      <c r="O51">
+        <f>COUNTBLANK(E51:N51)</f>
         <v/>
       </c>
     </row>
@@ -1945,18 +1999,19 @@
         <v>1510391</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D52" s="22" t="n">
         <v>10</v>
       </c>
       <c r="E52" s="21" t="n"/>
       <c r="M52" s="11" t="n"/>
-      <c r="N52">
-        <f>COUNTBLANK(E52:M52)</f>
+      <c r="N52" t="s"/>
+      <c r="O52">
+        <f>COUNTBLANK(E52:N52)</f>
         <v/>
       </c>
     </row>
@@ -1965,18 +2020,19 @@
         <v>1511734</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D53" s="22" t="n">
         <v>10</v>
       </c>
       <c r="E53" s="21" t="n"/>
       <c r="M53" s="11" t="n"/>
-      <c r="N53">
-        <f>COUNTBLANK(E53:M53)</f>
+      <c r="N53" t="s"/>
+      <c r="O53">
+        <f>COUNTBLANK(E53:N53)</f>
         <v/>
       </c>
     </row>
@@ -1985,18 +2041,19 @@
         <v>1513058</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D54" s="22" t="n">
         <v>10</v>
       </c>
       <c r="E54" s="21" t="n"/>
       <c r="M54" s="11" t="n"/>
-      <c r="N54">
-        <f>COUNTBLANK(E54:M54)</f>
+      <c r="N54" t="s"/>
+      <c r="O54">
+        <f>COUNTBLANK(E54:N54)</f>
         <v/>
       </c>
     </row>
@@ -2005,18 +2062,19 @@
         <v>1510484</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D55" s="22" t="n">
         <v>11</v>
       </c>
       <c r="E55" s="21" t="n"/>
       <c r="M55" s="11" t="n"/>
-      <c r="N55">
-        <f>COUNTBLANK(E55:M55)</f>
+      <c r="N55" t="s"/>
+      <c r="O55">
+        <f>COUNTBLANK(E55:N55)</f>
         <v/>
       </c>
     </row>
@@ -2025,18 +2083,19 @@
         <v>1511025</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D56" s="22" t="n">
         <v>11</v>
       </c>
       <c r="E56" s="21" t="n"/>
       <c r="M56" s="11" t="n"/>
-      <c r="N56">
-        <f>COUNTBLANK(E56:M56)</f>
+      <c r="N56" t="s"/>
+      <c r="O56">
+        <f>COUNTBLANK(E56:N56)</f>
         <v/>
       </c>
     </row>
@@ -2045,18 +2104,19 @@
         <v>1511979</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D57" s="22" t="n">
         <v>11</v>
       </c>
       <c r="E57" s="21" t="n"/>
       <c r="M57" s="11" t="n"/>
-      <c r="N57">
-        <f>COUNTBLANK(E57:M57)</f>
+      <c r="N57" t="s"/>
+      <c r="O57">
+        <f>COUNTBLANK(E57:N57)</f>
         <v/>
       </c>
     </row>
@@ -2065,18 +2125,19 @@
         <v>1512217</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D58" s="22" t="n">
         <v>11</v>
       </c>
       <c r="E58" s="21" t="n"/>
       <c r="M58" s="11" t="n"/>
-      <c r="N58">
-        <f>COUNTBLANK(E58:M58)</f>
+      <c r="N58" t="s"/>
+      <c r="O58">
+        <f>COUNTBLANK(E58:N58)</f>
         <v/>
       </c>
     </row>
@@ -2085,18 +2146,19 @@
         <v>1513614</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D59" s="22" t="n">
         <v>11</v>
       </c>
       <c r="E59" s="21" t="n"/>
       <c r="M59" s="11" t="n"/>
-      <c r="N59">
-        <f>COUNTBLANK(E59:M59)</f>
+      <c r="N59" t="s"/>
+      <c r="O59">
+        <f>COUNTBLANK(E59:N59)</f>
         <v/>
       </c>
     </row>
@@ -2105,18 +2167,19 @@
         <v>1410178</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D60" s="22" t="n">
         <v>12</v>
       </c>
       <c r="E60" s="21" t="n"/>
       <c r="M60" s="11" t="n"/>
-      <c r="N60">
-        <f>COUNTBLANK(E60:M60)</f>
+      <c r="N60" t="s"/>
+      <c r="O60">
+        <f>COUNTBLANK(E60:N60)</f>
         <v/>
       </c>
     </row>
@@ -2125,18 +2188,19 @@
         <v>1510274</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C61" s="22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D61" s="22" t="n">
         <v>12</v>
       </c>
       <c r="E61" s="21" t="n"/>
       <c r="M61" s="11" t="n"/>
-      <c r="N61">
-        <f>COUNTBLANK(E61:M61)</f>
+      <c r="N61" t="s"/>
+      <c r="O61">
+        <f>COUNTBLANK(E61:N61)</f>
         <v/>
       </c>
     </row>
@@ -2145,18 +2209,19 @@
         <v>1511440</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D62" s="22" t="n">
         <v>12</v>
       </c>
       <c r="E62" s="21" t="n"/>
       <c r="M62" s="11" t="n"/>
-      <c r="N62">
-        <f>COUNTBLANK(E62:M62)</f>
+      <c r="N62" t="s"/>
+      <c r="O62">
+        <f>COUNTBLANK(E62:N62)</f>
         <v/>
       </c>
     </row>
@@ -2165,18 +2230,19 @@
         <v>1411801</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C63" s="22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D63" s="22" t="n">
         <v>12</v>
       </c>
       <c r="E63" s="21" t="n"/>
       <c r="M63" s="11" t="n"/>
-      <c r="N63">
-        <f>COUNTBLANK(E63:M63)</f>
+      <c r="N63" t="s"/>
+      <c r="O63">
+        <f>COUNTBLANK(E63:N63)</f>
         <v/>
       </c>
     </row>
@@ -2185,18 +2251,19 @@
         <v>1610811</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D64" s="22" t="n">
         <v>13</v>
       </c>
       <c r="E64" s="21" t="n"/>
       <c r="M64" s="11" t="n"/>
-      <c r="N64">
-        <f>COUNTBLANK(E64:M64)</f>
+      <c r="N64" t="s"/>
+      <c r="O64">
+        <f>COUNTBLANK(E64:N64)</f>
         <v/>
       </c>
     </row>
@@ -2205,18 +2272,19 @@
         <v>1620052</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D65" s="22" t="n">
         <v>13</v>
       </c>
       <c r="E65" s="21" t="n"/>
       <c r="M65" s="11" t="n"/>
-      <c r="N65">
-        <f>COUNTBLANK(E65:M65)</f>
+      <c r="N65" t="s"/>
+      <c r="O65">
+        <f>COUNTBLANK(E65:N65)</f>
         <v/>
       </c>
     </row>
@@ -2225,18 +2293,19 @@
         <v>1513467</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D66" s="22" t="n">
         <v>13</v>
       </c>
       <c r="E66" s="21" t="n"/>
       <c r="M66" s="11" t="n"/>
-      <c r="N66">
-        <f>COUNTBLANK(E66:M66)</f>
+      <c r="N66" t="s"/>
+      <c r="O66">
+        <f>COUNTBLANK(E66:N66)</f>
         <v/>
       </c>
     </row>
@@ -2245,18 +2314,19 @@
         <v>1510332</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C67" s="22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D67" s="22" t="n">
         <v>14</v>
       </c>
       <c r="E67" s="21" t="n"/>
       <c r="M67" s="11" t="n"/>
-      <c r="N67">
-        <f>COUNTBLANK(E67:M67)</f>
+      <c r="N67" t="s"/>
+      <c r="O67">
+        <f>COUNTBLANK(E67:N67)</f>
         <v/>
       </c>
     </row>
@@ -2265,18 +2335,19 @@
         <v>1510830</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C68" s="22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D68" s="22" t="n">
         <v>14</v>
       </c>
       <c r="E68" s="21" t="n"/>
       <c r="M68" s="11" t="n"/>
-      <c r="N68">
-        <f>COUNTBLANK(E68:M68)</f>
+      <c r="N68" t="s"/>
+      <c r="O68">
+        <f>COUNTBLANK(E68:N68)</f>
         <v/>
       </c>
     </row>
@@ -2285,18 +2356,19 @@
         <v>1512296</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C69" s="22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D69" s="22" t="n">
         <v>14</v>
       </c>
       <c r="E69" s="21" t="n"/>
       <c r="M69" s="11" t="n"/>
-      <c r="N69">
-        <f>COUNTBLANK(E69:M69)</f>
+      <c r="N69" t="s"/>
+      <c r="O69">
+        <f>COUNTBLANK(E69:N69)</f>
         <v/>
       </c>
     </row>
@@ -2305,18 +2377,19 @@
         <v>1512312</v>
       </c>
       <c r="B70" s="22" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C70" s="22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D70" s="22" t="n">
         <v>14</v>
       </c>
       <c r="E70" s="21" t="n"/>
       <c r="M70" s="11" t="n"/>
-      <c r="N70">
-        <f>COUNTBLANK(E70:M70)</f>
+      <c r="N70" t="s"/>
+      <c r="O70">
+        <f>COUNTBLANK(E70:N70)</f>
         <v/>
       </c>
     </row>
@@ -2325,18 +2398,19 @@
         <v>1511013</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C71" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D71" s="22" t="n">
         <v>15</v>
       </c>
       <c r="E71" s="21" t="n"/>
       <c r="M71" s="11" t="n"/>
-      <c r="N71">
-        <f>COUNTBLANK(E71:M71)</f>
+      <c r="N71" t="s"/>
+      <c r="O71">
+        <f>COUNTBLANK(E71:N71)</f>
         <v/>
       </c>
     </row>
@@ -2345,18 +2419,19 @@
         <v>1511552</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C72" s="22" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D72" s="22" t="n">
         <v>15</v>
       </c>
       <c r="E72" s="21" t="n"/>
       <c r="M72" s="11" t="n"/>
-      <c r="N72">
-        <f>COUNTBLANK(E72:M72)</f>
+      <c r="N72" t="s"/>
+      <c r="O72">
+        <f>COUNTBLANK(E72:N72)</f>
         <v/>
       </c>
     </row>
@@ -2365,18 +2440,19 @@
         <v>1513157</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C73" s="22" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D73" s="22" t="n">
         <v>15</v>
       </c>
       <c r="E73" s="21" t="n"/>
       <c r="M73" s="11" t="n"/>
-      <c r="N73">
-        <f>COUNTBLANK(E73:M73)</f>
+      <c r="N73" t="s"/>
+      <c r="O73">
+        <f>COUNTBLANK(E73:N73)</f>
         <v/>
       </c>
     </row>
@@ -2385,18 +2461,19 @@
         <v>1410947</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C74" s="22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D74" s="22" t="n">
         <v>15</v>
       </c>
       <c r="E74" s="21" t="n"/>
       <c r="M74" s="11" t="n"/>
-      <c r="N74">
-        <f>COUNTBLANK(E74:M74)</f>
+      <c r="N74" t="s"/>
+      <c r="O74">
+        <f>COUNTBLANK(E74:N74)</f>
         <v/>
       </c>
     </row>
